--- a/第一期收入开支.xlsx
+++ b/第一期收入开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电气费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -842,24 +846,32 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="B39">
-        <f>SUM(B2:B38)</f>
-        <v>92214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40">
+        <f>SUM(B2:B39)</f>
+        <v>92582</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>36</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B44" s="1">
         <v>41700</v>
       </c>
     </row>
